--- a/data/trans_orig/P35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>22126</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14128</v>
+        <v>14145</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31999</v>
+        <v>31793</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04702941631201869</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03002884221876986</v>
+        <v>0.03006547563929374</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06801540338070895</v>
+        <v>0.06757647947510471</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -765,19 +765,19 @@
         <v>24139</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16428</v>
+        <v>15037</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36445</v>
+        <v>34502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0543987750722037</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03702144147265813</v>
+        <v>0.03388656222855006</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0821315903185616</v>
+        <v>0.07775253668551078</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -786,19 +786,19 @@
         <v>46265</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34776</v>
+        <v>33809</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61325</v>
+        <v>61011</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0506063445492094</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03803999434505504</v>
+        <v>0.03698142774025873</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06707988268307438</v>
+        <v>0.06673601037970432</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>448345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>438472</v>
+        <v>438678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>456343</v>
+        <v>456326</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9529705836879813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9319845966192909</v>
+        <v>0.9324235205248953</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.96997115778123</v>
+        <v>0.9699345243607063</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>438</v>
@@ -836,19 +836,19 @@
         <v>419598</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>407292</v>
+        <v>409235</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>427309</v>
+        <v>428700</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9456012249277963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9178684096814383</v>
+        <v>0.922247463314489</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9629785585273418</v>
+        <v>0.96611343777145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>891</v>
@@ -857,19 +857,19 @@
         <v>867943</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>852883</v>
+        <v>853197</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>879432</v>
+        <v>880399</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9493936554507906</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9329201173169253</v>
+        <v>0.9332639896202957</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9619600056549449</v>
+        <v>0.9630185722597412</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>27586</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19412</v>
+        <v>18039</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39085</v>
+        <v>39240</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03930109397449723</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02765527859629678</v>
+        <v>0.02569936695892533</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05568265111295356</v>
+        <v>0.05590317435737255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -982,19 +982,19 @@
         <v>60127</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45968</v>
+        <v>47595</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>77166</v>
+        <v>77873</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1022238803876209</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0781508193325957</v>
+        <v>0.08091648446553304</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1311905959570344</v>
+        <v>0.1323930127158434</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -1003,19 +1003,19 @@
         <v>87714</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70491</v>
+        <v>71629</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>106930</v>
+        <v>106654</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06798912227038349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05463954158767939</v>
+        <v>0.05552167412461728</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08288440517221497</v>
+        <v>0.08267056243593457</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>674333</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>662834</v>
+        <v>662679</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>682507</v>
+        <v>683880</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9606989060255028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9443173488870463</v>
+        <v>0.9440968256426268</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9723447214037032</v>
+        <v>0.9743006330410745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>501</v>
@@ -1053,19 +1053,19 @@
         <v>528067</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>511028</v>
+        <v>510321</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>542226</v>
+        <v>540599</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8977761196123791</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8688094040429655</v>
+        <v>0.8676069872841564</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9218491806674043</v>
+        <v>0.9190835155344667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1144</v>
@@ -1074,19 +1074,19 @@
         <v>1202399</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1183183</v>
+        <v>1183459</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1219622</v>
+        <v>1218484</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9320108777296165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9171155948277853</v>
+        <v>0.9173294375640655</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9453604584123206</v>
+        <v>0.9444783258753831</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>57628</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44200</v>
+        <v>43721</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73870</v>
+        <v>73596</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09405441794267569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07213777357914787</v>
+        <v>0.07135624045951204</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1205615934409702</v>
+        <v>0.1201151703479801</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -1199,19 +1199,19 @@
         <v>83220</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66116</v>
+        <v>64876</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102746</v>
+        <v>102122</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.127633313927257</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1014005376908272</v>
+        <v>0.09949897039550204</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1575793707772042</v>
+        <v>0.1566230561747214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -1220,19 +1220,19 @@
         <v>140849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119016</v>
+        <v>119727</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>165201</v>
+        <v>164998</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1113657594073666</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09410274405801912</v>
+        <v>0.09466501795806652</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.130620356358316</v>
+        <v>0.1304599002079833</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>555085</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>538843</v>
+        <v>539117</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>568513</v>
+        <v>568992</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9059455820573243</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8794384065590297</v>
+        <v>0.8798848296520199</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.927862226420852</v>
+        <v>0.9286437595404879</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>544</v>
@@ -1270,19 +1270,19 @@
         <v>568807</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>549281</v>
+        <v>549905</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>585911</v>
+        <v>587151</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.872366686072743</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8424206292227957</v>
+        <v>0.8433769438252784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8985994623091729</v>
+        <v>0.9005010296044977</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1076</v>
@@ -1291,19 +1291,19 @@
         <v>1123891</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1099539</v>
+        <v>1099742</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1145724</v>
+        <v>1145013</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8886342405926334</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8693796436416841</v>
+        <v>0.8695400997920162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9058972559419808</v>
+        <v>0.9053349820419334</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>70132</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>55683</v>
+        <v>55463</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>85788</v>
+        <v>86229</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1436945299038886</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1140893306787967</v>
+        <v>0.1136387777109362</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1757735430783928</v>
+        <v>0.1766754283384056</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -1416,19 +1416,19 @@
         <v>94447</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76994</v>
+        <v>78378</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111729</v>
+        <v>112357</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1929711851396868</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.157312364824983</v>
+        <v>0.1601392521122179</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2282806673794998</v>
+        <v>0.2295635396302318</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>161</v>
@@ -1437,19 +1437,19 @@
         <v>164579</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140637</v>
+        <v>142345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>187373</v>
+        <v>187657</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1683674782654524</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.143874731584635</v>
+        <v>0.1456216152151329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1916859193509932</v>
+        <v>0.1919763834124771</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>417930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>402274</v>
+        <v>401833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>432379</v>
+        <v>432599</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8563054700961114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8242264569216072</v>
+        <v>0.8233245716615948</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8859106693212033</v>
+        <v>0.8863612222890641</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>382</v>
@@ -1487,19 +1487,19 @@
         <v>394989</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>377707</v>
+        <v>377079</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>412442</v>
+        <v>411058</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8070288148603133</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7717193326205002</v>
+        <v>0.7704364603697683</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8426876351750171</v>
+        <v>0.8398607478877822</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>772</v>
@@ -1508,19 +1508,19 @@
         <v>812919</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>790125</v>
+        <v>789841</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>836861</v>
+        <v>835153</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8316325217345476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8083140806490069</v>
+        <v>0.8080236165875229</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8561252684153654</v>
+        <v>0.8543783847848673</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>133544</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>115595</v>
+        <v>116228</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>152138</v>
+        <v>152872</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3635602818270804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3146949910898257</v>
+        <v>0.3164183343302544</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4141810724702886</v>
+        <v>0.4161779150940403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>126</v>
@@ -1633,19 +1633,19 @@
         <v>127865</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>111453</v>
+        <v>110985</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147560</v>
+        <v>149248</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3254138462363408</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2836445784239991</v>
+        <v>0.2824532716530692</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3755368169264028</v>
+        <v>0.37983249949085</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>263</v>
@@ -1654,19 +1654,19 @@
         <v>261409</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>235842</v>
+        <v>234449</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>287424</v>
+        <v>287943</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3438446017777428</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3102148366277864</v>
+        <v>0.3083827385529657</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3780627302397813</v>
+        <v>0.3787453120216631</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>233779</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>215185</v>
+        <v>214451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>251728</v>
+        <v>251095</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6364397181729196</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5858189275297112</v>
+        <v>0.5838220849059595</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6853050089101742</v>
+        <v>0.6835816656697451</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>259</v>
@@ -1704,19 +1704,19 @@
         <v>265066</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>245371</v>
+        <v>243683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>281478</v>
+        <v>281946</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6745861537636592</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6244631830735972</v>
+        <v>0.6201675005091498</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7163554215760009</v>
+        <v>0.7175467283469309</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>495</v>
@@ -1725,19 +1725,19 @@
         <v>498845</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>472830</v>
+        <v>472311</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>524412</v>
+        <v>525805</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6561553982222572</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6219372697602188</v>
+        <v>0.6212546879783368</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6897851633722136</v>
+        <v>0.6916172614470343</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>127667</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112418</v>
+        <v>110978</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146656</v>
+        <v>145263</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.450520753498485</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3967082484397512</v>
+        <v>0.3916260195720015</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5175302490708563</v>
+        <v>0.5126126765593005</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>165</v>
@@ -1850,19 +1850,19 @@
         <v>151252</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>131525</v>
+        <v>134018</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>166547</v>
+        <v>168650</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4681775948532668</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.407114421791017</v>
+        <v>0.4148309024938971</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5155206202050828</v>
+        <v>0.5220306132678274</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>297</v>
@@ -1871,19 +1871,19 @@
         <v>278919</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>256296</v>
+        <v>255530</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>305004</v>
+        <v>302526</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4599269471561367</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.422621369895164</v>
+        <v>0.4213579805967669</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5029386787556609</v>
+        <v>0.4988534403680165</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>155710</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>136721</v>
+        <v>138114</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>170959</v>
+        <v>172399</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5494792465015149</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4824697509291436</v>
+        <v>0.4873873234406995</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6032917515602488</v>
+        <v>0.6083739804279985</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>184</v>
@@ -1921,19 +1921,19 @@
         <v>171814</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>156519</v>
+        <v>154416</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>191541</v>
+        <v>189048</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5318224051467333</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4844793797949171</v>
+        <v>0.4779693867321727</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5928855782089828</v>
+        <v>0.585169097506103</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>345</v>
@@ -1942,19 +1942,19 @@
         <v>327524</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>301439</v>
+        <v>303917</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>350147</v>
+        <v>350913</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5400730528438633</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4970613212443389</v>
+        <v>0.5011465596319835</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5773786301048357</v>
+        <v>0.5786420194032327</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>108637</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>93928</v>
+        <v>94549</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>121659</v>
+        <v>122210</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5342198742926779</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4618852972444866</v>
+        <v>0.4649410982109153</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.59825209345402</v>
+        <v>0.6009623289084723</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -2067,19 +2067,19 @@
         <v>150555</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>132826</v>
+        <v>132147</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>170645</v>
+        <v>171621</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4724887124524687</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4168488710759563</v>
+        <v>0.4147187769174961</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5355359958018781</v>
+        <v>0.5386009744097902</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>246</v>
@@ -2088,19 +2088,19 @@
         <v>259193</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>235008</v>
+        <v>234971</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>283637</v>
+        <v>281577</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4965375253897784</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4502076665266148</v>
+        <v>0.450135268346405</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5433657367846156</v>
+        <v>0.5394189485335102</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>94720</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>81698</v>
+        <v>81147</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109429</v>
+        <v>108808</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.465780125707322</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4017479065459801</v>
+        <v>0.3990376710915277</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5381147027555133</v>
+        <v>0.5350589017890847</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>146</v>
@@ -2138,19 +2138,19 @@
         <v>168088</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>147998</v>
+        <v>147022</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>185817</v>
+        <v>186496</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5275112875475313</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4644640041981219</v>
+        <v>0.4613990255902098</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5831511289240437</v>
+        <v>0.585281223082504</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>244</v>
@@ -2159,19 +2159,19 @@
         <v>262807</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>238363</v>
+        <v>240423</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>286992</v>
+        <v>287029</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5034624746102216</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4566342632153844</v>
+        <v>0.4605810514664897</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5497923334733853</v>
+        <v>0.549864731653595</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>547321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>506232</v>
+        <v>503551</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>587236</v>
+        <v>591230</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1750183142575368</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1618790034667663</v>
+        <v>0.1610217958874227</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1877820828488352</v>
+        <v>0.1890591628850223</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>676</v>
@@ -2284,19 +2284,19 @@
         <v>691606</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>645268</v>
+        <v>645978</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>742797</v>
+        <v>740117</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2155856923659197</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2011412083511215</v>
+        <v>0.2013625852219477</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2315426733103312</v>
+        <v>0.2307072994517462</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1231</v>
@@ -2305,19 +2305,19 @@
         <v>1238927</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1177488</v>
+        <v>1180088</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1299957</v>
+        <v>1301900</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1955607352681062</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1858626629747316</v>
+        <v>0.1862731423471774</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2051940634276905</v>
+        <v>0.2055007825530351</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>2579902</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2539987</v>
+        <v>2535993</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2620991</v>
+        <v>2623672</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8249816857424632</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8122179171511648</v>
+        <v>0.8109408371149779</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8381209965332337</v>
+        <v>0.8389782041125773</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2454</v>
@@ -2355,19 +2355,19 @@
         <v>2516427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2465236</v>
+        <v>2467916</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2562765</v>
+        <v>2562055</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7844143076340804</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7684573266896688</v>
+        <v>0.7692927005482542</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7988587916488785</v>
+        <v>0.7986374147780524</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4967</v>
@@ -2376,19 +2376,19 @@
         <v>5096329</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5035299</v>
+        <v>5033356</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5157768</v>
+        <v>5155168</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8044392647318938</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7948059365723095</v>
+        <v>0.7944992174469651</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8141373370252685</v>
+        <v>0.8137268576528226</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>23375</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14937</v>
+        <v>15259</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33970</v>
+        <v>34206</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05312033515499711</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03394600454719459</v>
+        <v>0.03467565648275221</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07719811824813697</v>
+        <v>0.07773532869635572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -2744,19 +2744,19 @@
         <v>57539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44886</v>
+        <v>45606</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72604</v>
+        <v>74268</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1378657302396848</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1075500404407606</v>
+        <v>0.1092750991395795</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.173961826907522</v>
+        <v>0.1779502812320046</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -2765,19 +2765,19 @@
         <v>80914</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>64644</v>
+        <v>64078</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99696</v>
+        <v>99706</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09437213309705872</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07539701762494197</v>
+        <v>0.07473598534645952</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1162792299272136</v>
+        <v>0.1162909443277365</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>416660</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406065</v>
+        <v>405829</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>425098</v>
+        <v>424776</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9468796648450029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.922801881751863</v>
+        <v>0.9222646713036442</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9660539954528055</v>
+        <v>0.9653243435172478</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>351</v>
@@ -2815,19 +2815,19 @@
         <v>359815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>344750</v>
+        <v>343086</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>372468</v>
+        <v>371748</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8621342697603153</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8260381730924781</v>
+        <v>0.8220497187679954</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8924499595592394</v>
+        <v>0.8907249008604204</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>760</v>
@@ -2836,19 +2836,19 @@
         <v>776474</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757692</v>
+        <v>757682</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>792744</v>
+        <v>793310</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9056278669029413</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8837207700727865</v>
+        <v>0.8837090556722641</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9246029823750582</v>
+        <v>0.9252640146535407</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>87664</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69411</v>
+        <v>70464</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108279</v>
+        <v>107671</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1315017995048327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1041200253732474</v>
+        <v>0.1056997827816764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1624254505466542</v>
+        <v>0.1615122440123822</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>114</v>
@@ -2961,19 +2961,19 @@
         <v>122803</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102207</v>
+        <v>104133</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143052</v>
+        <v>144338</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2074048763557192</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1726200555187756</v>
+        <v>0.175872815355828</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.241603441813094</v>
+        <v>0.2437742345201351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -2982,19 +2982,19 @@
         <v>210468</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>186436</v>
+        <v>183990</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243378</v>
+        <v>235995</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1672057595355459</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1481136463006663</v>
+        <v>0.1461706092606913</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.193351287643649</v>
+        <v>0.1874860485465143</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>578976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>558361</v>
+        <v>558969</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>597229</v>
+        <v>596176</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8684982004951672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8375745494533459</v>
+        <v>0.8384877559876178</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8958799746267526</v>
+        <v>0.8943002172183235</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>441</v>
@@ -3032,19 +3032,19 @@
         <v>469292</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>449043</v>
+        <v>447757</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>489888</v>
+        <v>487962</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7925951236442809</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7583965581869058</v>
+        <v>0.7562257654798644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8273799444812243</v>
+        <v>0.824127184644172</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1007</v>
@@ -3053,19 +3053,19 @@
         <v>1048267</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1015357</v>
+        <v>1022740</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1072299</v>
+        <v>1074745</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8327942404644542</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.806648712356351</v>
+        <v>0.8125139514534856</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8518863536993337</v>
+        <v>0.8538293907393087</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>112871</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92683</v>
+        <v>93945</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134178</v>
+        <v>134058</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1724520103107686</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1416081059668806</v>
+        <v>0.1435361183316865</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2050075345889596</v>
+        <v>0.2048235527664864</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -3178,19 +3178,19 @@
         <v>189084</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>168148</v>
+        <v>166589</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>218678</v>
+        <v>216159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2730473638285141</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2428153623048019</v>
+        <v>0.2405636153864575</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3157832870413167</v>
+        <v>0.3121456925814801</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>285</v>
@@ -3199,19 +3199,19 @@
         <v>301954</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>271399</v>
+        <v>269914</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>336252</v>
+        <v>332896</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2241682163012106</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2014840509075905</v>
+        <v>0.2003815212476352</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2496306797439649</v>
+        <v>0.2471393733162091</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>541634</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>520327</v>
+        <v>520447</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>561822</v>
+        <v>560560</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8275479896892315</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7949924654110403</v>
+        <v>0.7951764472335134</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8583918940331193</v>
+        <v>0.8564638816683134</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>472</v>
@@ -3249,19 +3249,19 @@
         <v>503410</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>473816</v>
+        <v>476335</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>524346</v>
+        <v>525905</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7269526361714859</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6842167129586835</v>
+        <v>0.6878543074185198</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7571846376951982</v>
+        <v>0.7594363846135425</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>989</v>
@@ -3270,19 +3270,19 @@
         <v>1045045</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1010747</v>
+        <v>1014103</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1075600</v>
+        <v>1077085</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7758317836987894</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.750369320256035</v>
+        <v>0.7528606266837907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7985159490924095</v>
+        <v>0.7996184787523648</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>147658</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125768</v>
+        <v>125585</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>171283</v>
+        <v>173492</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2463964847296057</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2098683733762968</v>
+        <v>0.2095635444619821</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2858206424648715</v>
+        <v>0.2895057559981188</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>180</v>
@@ -3395,19 +3395,19 @@
         <v>207955</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>184238</v>
+        <v>181510</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>232481</v>
+        <v>231178</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3474812975871509</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3078523627530336</v>
+        <v>0.3032938285192829</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3884640417721717</v>
+        <v>0.3862855386873672</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>309</v>
@@ -3416,19 +3416,19 @@
         <v>355612</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>321392</v>
+        <v>320664</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>390483</v>
+        <v>390994</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2969048659146969</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2683341610289095</v>
+        <v>0.267725677174014</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3260187915741842</v>
+        <v>0.3264454659686442</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>451611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>427986</v>
+        <v>425777</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>473501</v>
+        <v>473684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7536035152703944</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7141793575351285</v>
+        <v>0.7104942440018822</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7901316266237035</v>
+        <v>0.790436455538018</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>343</v>
@@ -3466,19 +3466,19 @@
         <v>390508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>365982</v>
+        <v>367285</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>414225</v>
+        <v>416953</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6525187024128491</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6115359582278281</v>
+        <v>0.6137144613126329</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6921476372469663</v>
+        <v>0.696706171480717</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>748</v>
@@ -3487,19 +3487,19 @@
         <v>842120</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>807249</v>
+        <v>806738</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>876340</v>
+        <v>877068</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7030951340853031</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6739812084258158</v>
+        <v>0.6735545340313558</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7316658389710905</v>
+        <v>0.7322743228259859</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>196182</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>173059</v>
+        <v>174672</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>217657</v>
+        <v>216768</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4648809109641868</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4100889774844005</v>
+        <v>0.4139104430473852</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5157704589807607</v>
+        <v>0.5136643602850626</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>201</v>
@@ -3612,19 +3612,19 @@
         <v>221715</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>199526</v>
+        <v>199794</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>243126</v>
+        <v>241978</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5154202331470675</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4638381223831654</v>
+        <v>0.4644607577367665</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5651935710642664</v>
+        <v>0.5625254945947209</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>380</v>
@@ -3633,19 +3633,19 @@
         <v>417896</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>386985</v>
+        <v>387504</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>450172</v>
+        <v>446968</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4903925333984826</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4541185546697248</v>
+        <v>0.4547277687555371</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5282669543149423</v>
+        <v>0.5245075350469218</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>225822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204347</v>
+        <v>205236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>248945</v>
+        <v>247332</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5351190890358132</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4842295410192394</v>
+        <v>0.4863356397149374</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5899110225155995</v>
+        <v>0.5860895569526149</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>189</v>
@@ -3683,19 +3683,19 @@
         <v>208449</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187038</v>
+        <v>188186</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>230638</v>
+        <v>230370</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4845797668529325</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4348064289357336</v>
+        <v>0.4374745054052792</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5361618776168346</v>
+        <v>0.5355392422632336</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>396</v>
@@ -3704,19 +3704,19 @@
         <v>434271</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>401995</v>
+        <v>405199</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>465182</v>
+        <v>464663</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5096074666015173</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4717330456850578</v>
+        <v>0.4754924649530782</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5458814453302754</v>
+        <v>0.5452722312444629</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>160732</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>141347</v>
+        <v>141472</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>179720</v>
+        <v>177290</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5291208157409288</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.465307388448217</v>
+        <v>0.4657171810669207</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5916286218413644</v>
+        <v>0.5836274585453038</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>188</v>
@@ -3829,19 +3829,19 @@
         <v>195206</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>173042</v>
+        <v>177241</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>213002</v>
+        <v>212982</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5684975236869887</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5039499253440367</v>
+        <v>0.5161774617522661</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6203249626507148</v>
+        <v>0.6202662627605039</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>336</v>
@@ -3850,19 +3850,19 @@
         <v>355938</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>329958</v>
+        <v>330618</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>381845</v>
+        <v>381302</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5500139162297328</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5098686142491494</v>
+        <v>0.5108882877050852</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5900459608007722</v>
+        <v>0.5892068362019894</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>143040</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>124052</v>
+        <v>126482</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162425</v>
+        <v>162300</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4708791842590712</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4083713781586357</v>
+        <v>0.4163725414546962</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.534692611551783</v>
+        <v>0.5342828189330793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -3900,19 +3900,19 @@
         <v>148166</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>130370</v>
+        <v>130390</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>170330</v>
+        <v>166131</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4315024763130113</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3796750373492854</v>
+        <v>0.3797337372394963</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4960500746559633</v>
+        <v>0.483822538247734</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>274</v>
@@ -3921,19 +3921,19 @@
         <v>291206</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>265299</v>
+        <v>265842</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>317186</v>
+        <v>316526</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4499860837702672</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4099540391992277</v>
+        <v>0.4107931637980106</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4901313857508505</v>
+        <v>0.489111712294915</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>135553</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>118319</v>
+        <v>116488</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>151359</v>
+        <v>150826</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5617407900224333</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4903241166003372</v>
+        <v>0.4827369937842485</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6272419990943034</v>
+        <v>0.625034431297474</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>174</v>
@@ -4046,19 +4046,19 @@
         <v>193086</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>172909</v>
+        <v>174185</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>212631</v>
+        <v>213748</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5105746814814671</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4572210974953181</v>
+        <v>0.4605949615311485</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5622561573155447</v>
+        <v>0.5652109032988086</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>293</v>
@@ -4067,19 +4067,19 @@
         <v>328639</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>302644</v>
+        <v>303092</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>352999</v>
+        <v>355646</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5305055417248694</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.488543034402939</v>
+        <v>0.4892670623353152</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.569829781692451</v>
+        <v>0.5741026253144227</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>105755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>89949</v>
+        <v>90482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>122989</v>
+        <v>124820</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4382592099775667</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3727580009056966</v>
+        <v>0.374965568702526</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5096758833996629</v>
+        <v>0.5172630062157518</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>166</v>
@@ -4117,19 +4117,19 @@
         <v>185088</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>165543</v>
+        <v>164426</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>205265</v>
+        <v>203989</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4894253185185328</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4377438426844552</v>
+        <v>0.4347890967011914</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5427789025046815</v>
+        <v>0.5394050384688516</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>262</v>
@@ -4138,19 +4138,19 @@
         <v>290843</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>266483</v>
+        <v>263836</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>316838</v>
+        <v>316390</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4694944582751305</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4301702183075493</v>
+        <v>0.4258973746855773</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5114569655970612</v>
+        <v>0.5107329376646846</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>864034</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>806652</v>
+        <v>813044</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>910997</v>
+        <v>917567</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2596620528507136</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2424174841535716</v>
+        <v>0.2443383346915504</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2737754299141041</v>
+        <v>0.2757498311356996</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1091</v>
@@ -4263,19 +4263,19 @@
         <v>1187387</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1135012</v>
+        <v>1133551</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1244801</v>
+        <v>1242301</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3439594035581164</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3287876526623422</v>
+        <v>0.3283642544564765</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3605908206756354</v>
+        <v>0.3598665922058754</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1880</v>
@@ -4284,19 +4284,19 @@
         <v>2051421</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1975601</v>
+        <v>1978287</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2132526</v>
+        <v>2136070</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3025852398427265</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2914017719481765</v>
+        <v>0.2917978565244086</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3145482193926855</v>
+        <v>0.3150708786514536</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2463500</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2416537</v>
+        <v>2409967</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2520882</v>
+        <v>2514490</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7403379471492864</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7262245700858959</v>
+        <v>0.7242501688643004</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7575825158464283</v>
+        <v>0.7556616653084496</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2107</v>
@@ -4334,19 +4334,19 @@
         <v>2264727</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2207313</v>
+        <v>2209813</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2317102</v>
+        <v>2318563</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6560405964418836</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6394091793243646</v>
+        <v>0.6401334077941245</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6712123473376578</v>
+        <v>0.6716357455435233</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4436</v>
@@ -4355,19 +4355,19 @@
         <v>4728227</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4647122</v>
+        <v>4643578</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4804047</v>
+        <v>4801361</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6974147601572734</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6854517806073144</v>
+        <v>0.6849291213485464</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7085982280518235</v>
+        <v>0.7082021434755917</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>40115</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28670</v>
+        <v>28467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53404</v>
+        <v>53263</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09823384337213004</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07020671060837527</v>
+        <v>0.06970989904411783</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1307754823643373</v>
+        <v>0.1304299022269458</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -4723,19 +4723,19 @@
         <v>44783</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34065</v>
+        <v>33728</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58017</v>
+        <v>57555</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1149877508535833</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08746816672042405</v>
+        <v>0.08660194537643263</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1489698152395197</v>
+        <v>0.1477822686297889</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -4744,19 +4744,19 @@
         <v>84898</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67269</v>
+        <v>67748</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102566</v>
+        <v>104013</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1064123021076106</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08431612623858997</v>
+        <v>0.08491626321507997</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1285582419568216</v>
+        <v>0.1303709424893396</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>368247</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>354958</v>
+        <v>355099</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>379692</v>
+        <v>379895</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.90176615662787</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8692245176356627</v>
+        <v>0.8695700977730541</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9297932893916248</v>
+        <v>0.930290100955882</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>351</v>
@@ -4794,19 +4794,19 @@
         <v>344675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>331441</v>
+        <v>331903</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>355393</v>
+        <v>355730</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8850122491464167</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8510301847604794</v>
+        <v>0.8522177313702113</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9125318332795759</v>
+        <v>0.9133980546235677</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>698</v>
@@ -4815,19 +4815,19 @@
         <v>712922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>695254</v>
+        <v>693807</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>730551</v>
+        <v>730072</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8935876978923893</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8714417580431785</v>
+        <v>0.8696290575106604</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.91568387376141</v>
+        <v>0.9150837367849201</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>75106</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60361</v>
+        <v>59206</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93026</v>
+        <v>92720</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1288914286354909</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1035863301195878</v>
+        <v>0.1016041430440579</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1596442065695428</v>
+        <v>0.1591190583859722</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -4940,19 +4940,19 @@
         <v>134872</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>115024</v>
+        <v>117232</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>154270</v>
+        <v>155411</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2416451920477068</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2060832963154192</v>
+        <v>0.2100409687515309</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2763990755287989</v>
+        <v>0.2784437775321715</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>210</v>
@@ -4961,19 +4961,19 @@
         <v>209978</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>185766</v>
+        <v>185225</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>239189</v>
+        <v>237849</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1840541738572442</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1628307218413102</v>
+        <v>0.1623569290963509</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2096582868846656</v>
+        <v>0.2084834151778996</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>507604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>489684</v>
+        <v>489990</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>522349</v>
+        <v>523504</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.871108571364509</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8403557934304566</v>
+        <v>0.8408809416140277</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.896413669880412</v>
+        <v>0.898395856955942</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>436</v>
@@ -5011,19 +5011,19 @@
         <v>423269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>403871</v>
+        <v>402730</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>443117</v>
+        <v>440909</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7583548079522932</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7236009244712013</v>
+        <v>0.7215562224678287</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7939167036845808</v>
+        <v>0.7899590312484691</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>924</v>
@@ -5032,19 +5032,19 @@
         <v>930873</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>901662</v>
+        <v>903002</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>955085</v>
+        <v>955626</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8159458261427558</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7903417131153344</v>
+        <v>0.7915165848221006</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8371692781586899</v>
+        <v>0.8376430709036492</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>130709</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110588</v>
+        <v>110527</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151863</v>
+        <v>155441</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1984796166942639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1679257665659993</v>
+        <v>0.1678333300585819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2306028259376836</v>
+        <v>0.2360347594641252</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>181</v>
@@ -5157,19 +5157,19 @@
         <v>178800</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>155796</v>
+        <v>158054</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>201352</v>
+        <v>201670</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2746828936428026</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2393418709769734</v>
+        <v>0.2428108245049281</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3093284234422256</v>
+        <v>0.3098167093393559</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>305</v>
@@ -5178,19 +5178,19 @@
         <v>309509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>282409</v>
+        <v>280118</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>342583</v>
+        <v>342431</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2363596473083227</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2156644869489979</v>
+        <v>0.2139152017440332</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2616171207800593</v>
+        <v>0.2615009245349884</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>527841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>506687</v>
+        <v>503109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>547962</v>
+        <v>548023</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8015203833057362</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7693971740623167</v>
+        <v>0.7639652405358752</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8320742334340008</v>
+        <v>0.8321666699414181</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>474</v>
@@ -5228,19 +5228,19 @@
         <v>472134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>449582</v>
+        <v>449264</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>495138</v>
+        <v>492880</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7253171063571974</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6906715765577742</v>
+        <v>0.690183290660644</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7606581290230263</v>
+        <v>0.7571891754950719</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>978</v>
@@ -5249,19 +5249,19 @@
         <v>999974</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>966900</v>
+        <v>967052</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1027074</v>
+        <v>1029365</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7636403526916773</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7383828792199408</v>
+        <v>0.7384990754650117</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7843355130510022</v>
+        <v>0.7860847982559668</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>200461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>176295</v>
+        <v>176212</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>226690</v>
+        <v>226087</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3127948053398407</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2750869538465349</v>
+        <v>0.2749567721887368</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3537216271405095</v>
+        <v>0.352780855788659</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -5374,19 +5374,19 @@
         <v>225533</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>203893</v>
+        <v>203129</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>251151</v>
+        <v>250971</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3526478301136535</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3188110297469462</v>
+        <v>0.3176169331524563</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3927049068961886</v>
+        <v>0.3924225629541779</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>392</v>
@@ -5395,19 +5395,19 @@
         <v>425994</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>388271</v>
+        <v>394611</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>461629</v>
+        <v>462709</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3327006364552187</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3032389718273844</v>
+        <v>0.3081902982212532</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3605314717963153</v>
+        <v>0.3613754361280511</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>440410</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>414181</v>
+        <v>414784</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>464576</v>
+        <v>464659</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6872051946601593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6462783728594905</v>
+        <v>0.6472191442113415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7249130461534651</v>
+        <v>0.7250432278112633</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>382</v>
@@ -5445,19 +5445,19 @@
         <v>414009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388391</v>
+        <v>388571</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>435649</v>
+        <v>436413</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6473521698863466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6072950931038117</v>
+        <v>0.6075774370458222</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6811889702530539</v>
+        <v>0.6823830668475438</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>778</v>
@@ -5466,19 +5466,19 @@
         <v>854418</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>818783</v>
+        <v>817703</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>892141</v>
+        <v>885801</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6672993635447813</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6394685282036846</v>
+        <v>0.638624563871949</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6967610281726156</v>
+        <v>0.6918097017787469</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>190730</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>169126</v>
+        <v>167858</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>213167</v>
+        <v>211394</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4033507811765505</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3576618606578128</v>
+        <v>0.3549800916651966</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4507986292763934</v>
+        <v>0.4470487891935058</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>204</v>
@@ -5591,19 +5591,19 @@
         <v>232968</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>211588</v>
+        <v>209548</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>256511</v>
+        <v>255530</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4750683194182684</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4314698588252351</v>
+        <v>0.4273100145966549</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5230773212956905</v>
+        <v>0.5210754095506702</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>371</v>
@@ -5612,19 +5612,19 @@
         <v>423699</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>390515</v>
+        <v>391966</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>458363</v>
+        <v>455263</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4398618986166241</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4054125811801592</v>
+        <v>0.4069184580148322</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4758483249936789</v>
+        <v>0.472630345609426</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>282135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>259698</v>
+        <v>261471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>303739</v>
+        <v>305007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5966492188234495</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5492013707236066</v>
+        <v>0.5529512108064945</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6423381393421873</v>
+        <v>0.6450199083348036</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>224</v>
@@ -5662,19 +5662,19 @@
         <v>257421</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>233878</v>
+        <v>234859</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>278801</v>
+        <v>280841</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5249316805817316</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4769226787043098</v>
+        <v>0.4789245904493298</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5685301411747653</v>
+        <v>0.5726899854033451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>477</v>
@@ -5683,19 +5683,19 @@
         <v>539555</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>504891</v>
+        <v>507991</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>572739</v>
+        <v>571288</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5601381013833758</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5241516750063212</v>
+        <v>0.5273696543905738</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5945874188198408</v>
+        <v>0.5930815419851677</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>177040</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>158688</v>
+        <v>159295</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>194546</v>
+        <v>194104</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5429490016493439</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4866657117815175</v>
+        <v>0.4885291772670126</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5966370950236196</v>
+        <v>0.5952814912683492</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>202</v>
@@ -5808,19 +5808,19 @@
         <v>214507</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>194636</v>
+        <v>193931</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>233921</v>
+        <v>232616</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5818558450746196</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5279563446416813</v>
+        <v>0.5260431593273456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6345160163961454</v>
+        <v>0.6309781993516581</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>372</v>
@@ -5829,19 +5829,19 @@
         <v>391547</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>365370</v>
+        <v>365606</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>416870</v>
+        <v>419814</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5635949677638108</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5259151866238791</v>
+        <v>0.5262550866362653</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6000453492175922</v>
+        <v>0.6042831248619323</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>149031</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>131525</v>
+        <v>131967</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>167383</v>
+        <v>166776</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4570509983506561</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4033629049763805</v>
+        <v>0.4047185087316508</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5133342882184826</v>
+        <v>0.5114708227329877</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>144</v>
@@ -5879,19 +5879,19 @@
         <v>154153</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134739</v>
+        <v>136044</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>174024</v>
+        <v>174729</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4181441549253804</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3654839836038548</v>
+        <v>0.3690218006483419</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4720436553583188</v>
+        <v>0.4739568406726546</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>291</v>
@@ -5900,19 +5900,19 @@
         <v>303184</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>277861</v>
+        <v>274917</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>329361</v>
+        <v>329125</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4364050322361893</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3999546507824078</v>
+        <v>0.3957168751380677</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.474084813376121</v>
+        <v>0.4737449133637348</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>117295</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>100166</v>
+        <v>101280</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>130149</v>
+        <v>131236</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4690084557829354</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4005166944292261</v>
+        <v>0.4049724619211427</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5204066629921505</v>
+        <v>0.5247510805627316</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>140</v>
@@ -6025,19 +6025,19 @@
         <v>186448</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>164967</v>
+        <v>163942</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>208378</v>
+        <v>209458</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.467491541890763</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4136299370366593</v>
+        <v>0.4110614222491155</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5224780386725707</v>
+        <v>0.525184359574303</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>277</v>
@@ -6046,19 +6046,19 @@
         <v>303743</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>279129</v>
+        <v>275905</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>332421</v>
+        <v>330809</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4680761564342089</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4301453159868758</v>
+        <v>0.4251771413365498</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5122693577203721</v>
+        <v>0.5097858053032874</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>132796</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119942</v>
+        <v>118855</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>149925</v>
+        <v>148811</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5309915442170646</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4795933370078494</v>
+        <v>0.4752489194372687</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5994833055707742</v>
+        <v>0.5950275380788573</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>160</v>
@@ -6096,19 +6096,19 @@
         <v>212379</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>190449</v>
+        <v>189369</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>233860</v>
+        <v>234885</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.532508458109237</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4775219613274291</v>
+        <v>0.4748156404256969</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5863700629633407</v>
+        <v>0.5889385777508843</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>317</v>
@@ -6117,19 +6117,19 @@
         <v>345175</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>316497</v>
+        <v>318109</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>369789</v>
+        <v>373013</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5319238435657911</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.487730642279628</v>
+        <v>0.4902141946967128</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5698546840131243</v>
+        <v>0.5748228586634504</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>931456</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>876226</v>
+        <v>877214</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>985712</v>
+        <v>982629</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2789192279716258</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2623808863196402</v>
+        <v>0.2626765288600764</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2951656380351427</v>
+        <v>0.2942425485724458</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1123</v>
@@ -6242,19 +6242,19 @@
         <v>1217911</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1160815</v>
+        <v>1161170</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1279869</v>
+        <v>1274896</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3483779014645863</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3320458049702809</v>
+        <v>0.3321472413755874</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3661004872815178</v>
+        <v>0.3646780896124355</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2010</v>
@@ -6263,19 +6263,19 @@
         <v>2149368</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2069824</v>
+        <v>2069641</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2229880</v>
+        <v>2220059</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3144433408234503</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3028065002492183</v>
+        <v>0.3027796751298966</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3262220017089578</v>
+        <v>0.3247852064127705</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2408064</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2353808</v>
+        <v>2356891</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2463294</v>
+        <v>2462306</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7210807720283742</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7048343619648573</v>
+        <v>0.7057574514275543</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7376191136803598</v>
+        <v>0.7373234711399236</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2171</v>
@@ -6313,19 +6313,19 @@
         <v>2278038</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2216080</v>
+        <v>2221053</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2335134</v>
+        <v>2334779</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6516220985354136</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6338995127184822</v>
+        <v>0.6353219103875645</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6679541950297192</v>
+        <v>0.6678527586244126</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4463</v>
@@ -6334,19 +6334,19 @@
         <v>4686101</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4605589</v>
+        <v>4615410</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4765645</v>
+        <v>4765828</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6855566591765496</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6737779982910422</v>
+        <v>0.6752147935872298</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6971934997507818</v>
+        <v>0.697220324870104</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>65849</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43722</v>
+        <v>45012</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90899</v>
+        <v>91205</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1614765639252398</v>
+        <v>0.1614765639252399</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1072171936730298</v>
+        <v>0.1103795070285016</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2229056885725471</v>
+        <v>0.2236552252773011</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -6702,19 +6702,19 @@
         <v>99914</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76367</v>
+        <v>78874</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126589</v>
+        <v>123547</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2756170406246022</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2106617174567264</v>
+        <v>0.217575703591904</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.349200171350855</v>
+        <v>0.340807719262982</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -6723,19 +6723,19 @@
         <v>165763</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>134460</v>
+        <v>133689</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>198206</v>
+        <v>201095</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2151920241790945</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1745548402523881</v>
+        <v>0.1735535058229438</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2573090029733005</v>
+        <v>0.2610583030549342</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>341944</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>316894</v>
+        <v>316588</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>364071</v>
+        <v>362781</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8385234360747603</v>
+        <v>0.8385234360747601</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7770943114274529</v>
+        <v>0.7763447747226989</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8927828063269703</v>
+        <v>0.8896204929714984</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>153</v>
@@ -6773,19 +6773,19 @@
         <v>262598</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>235923</v>
+        <v>238965</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>286145</v>
+        <v>283638</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7243829593753978</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6507998286491449</v>
+        <v>0.6591922807370179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7893382825432735</v>
+        <v>0.7824242964080959</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>297</v>
@@ -6794,19 +6794,19 @@
         <v>604542</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>572099</v>
+        <v>569210</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>635845</v>
+        <v>636616</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7848079758209057</v>
+        <v>0.7848079758209053</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7426909970266995</v>
+        <v>0.7389416969450658</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8254451597476119</v>
+        <v>0.8264464941770562</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>120224</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97831</v>
+        <v>96712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>144925</v>
+        <v>145351</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2521000085160858</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2051433991956308</v>
+        <v>0.2027980972222084</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3038964785805021</v>
+        <v>0.3047887858044395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -6919,19 +6919,19 @@
         <v>123178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>103573</v>
+        <v>104247</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145974</v>
+        <v>142696</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2458235933157767</v>
+        <v>0.2458235933157766</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2066983565436892</v>
+        <v>0.2080441499440373</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2913163141138396</v>
+        <v>0.2847752657254872</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>188</v>
@@ -6940,19 +6940,19 @@
         <v>243402</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>213161</v>
+        <v>210991</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>277793</v>
+        <v>273430</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2488841688346445</v>
+        <v>0.2488841688346446</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2179618251470791</v>
+        <v>0.2157431308709136</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2840499300488425</v>
+        <v>0.2795880910072959</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>356666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>331965</v>
+        <v>331539</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>379059</v>
+        <v>380178</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7478999914839142</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6961035214194978</v>
+        <v>0.695211214195561</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7948566008043693</v>
+        <v>0.7972019027777919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>349</v>
@@ -6990,19 +6990,19 @@
         <v>377905</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>355109</v>
+        <v>358387</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>397510</v>
+        <v>396836</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7541764066842231</v>
+        <v>0.7541764066842233</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7086836858861607</v>
+        <v>0.7152247342745128</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7933016434563107</v>
+        <v>0.7919558500559628</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>574</v>
@@ -7011,19 +7011,19 @@
         <v>734571</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>700180</v>
+        <v>704543</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>764812</v>
+        <v>766982</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7511158311653554</v>
+        <v>0.7511158311653553</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7159500699511575</v>
+        <v>0.7204119089927041</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7820381748529209</v>
+        <v>0.7842568691290867</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>161440</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>139407</v>
+        <v>139708</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184947</v>
+        <v>186461</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2600363314973644</v>
+        <v>0.2600363314973645</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2245464341169006</v>
+        <v>0.2250309457656463</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2979000768819213</v>
+        <v>0.3003380432853744</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>264</v>
@@ -7136,19 +7136,19 @@
         <v>201472</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182397</v>
+        <v>180963</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>219998</v>
+        <v>220457</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3245405585281391</v>
+        <v>0.3245405585281392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2938139226258256</v>
+        <v>0.2915050277412569</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.354383659993603</v>
+        <v>0.355123402472926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>407</v>
@@ -7157,19 +7157,19 @@
         <v>362912</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>333882</v>
+        <v>333053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>392742</v>
+        <v>395926</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2922872338297836</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2689065516023847</v>
+        <v>0.2682394168327141</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3163127240097651</v>
+        <v>0.3188765741628572</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>459397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>435890</v>
+        <v>434376</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>481430</v>
+        <v>481129</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7399636685026355</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7020999231180778</v>
+        <v>0.6996619567146256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7754535658830994</v>
+        <v>0.7749690542343537</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>580</v>
@@ -7207,19 +7207,19 @@
         <v>419318</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>400792</v>
+        <v>400333</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>438393</v>
+        <v>439827</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6754594414718608</v>
+        <v>0.675459441471861</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6456163400063971</v>
+        <v>0.6448765975270739</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7061860773741744</v>
+        <v>0.7084949722587431</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>983</v>
@@ -7228,19 +7228,19 @@
         <v>878715</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>848885</v>
+        <v>845701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>907745</v>
+        <v>908574</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7077127661702166</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6836872759902349</v>
+        <v>0.681123425837143</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7310934483976154</v>
+        <v>0.7317605831672861</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>241331</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>217936</v>
+        <v>214877</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>271903</v>
+        <v>267024</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3444549315595948</v>
+        <v>0.3444549315595947</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3110627724205172</v>
+        <v>0.3066973273213978</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3880909906173366</v>
+        <v>0.3811267617408992</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>406</v>
@@ -7353,19 +7353,19 @@
         <v>276711</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>256562</v>
+        <v>258063</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>299096</v>
+        <v>298933</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3760826890515008</v>
+        <v>0.3760826890515009</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3486973659009233</v>
+        <v>0.3507378872929383</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4065055267171039</v>
+        <v>0.4062836229221229</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>622</v>
@@ -7374,19 +7374,19 @@
         <v>518042</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>483208</v>
+        <v>484361</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>551374</v>
+        <v>553359</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3606558519978657</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3364041291597989</v>
+        <v>0.3372073633981078</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3838610685541214</v>
+        <v>0.3852427669158484</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>459286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>428714</v>
+        <v>433593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>482681</v>
+        <v>485740</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6555450684404053</v>
+        <v>0.6555450684404052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6119090093826635</v>
+        <v>0.6188732382591012</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6889372275794824</v>
+        <v>0.6933026726786023</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>733</v>
@@ -7424,19 +7424,19 @@
         <v>459062</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>436677</v>
+        <v>436840</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>479211</v>
+        <v>477710</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6239173109484991</v>
+        <v>0.6239173109484992</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5934944732828961</v>
+        <v>0.5937163770778771</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6513026340990766</v>
+        <v>0.6492621127070619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1182</v>
@@ -7445,19 +7445,19 @@
         <v>918348</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>885016</v>
+        <v>883031</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>953182</v>
+        <v>952029</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6393441480021343</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6161389314458786</v>
+        <v>0.6147572330841515</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6635958708402011</v>
+        <v>0.6627926366018922</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>268580</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>243024</v>
+        <v>245033</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>290792</v>
+        <v>292013</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4407672269472682</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3988268883935303</v>
+        <v>0.4021237969755043</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.477220150661529</v>
+        <v>0.4792244165082423</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>427</v>
@@ -7570,19 +7570,19 @@
         <v>271820</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>254648</v>
+        <v>253340</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>292631</v>
+        <v>290749</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4472398870156302</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4189865260218354</v>
+        <v>0.4168341755389793</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4814816244873251</v>
+        <v>0.4783857059985918</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>722</v>
@@ -7591,19 +7591,19 @@
         <v>540400</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>512182</v>
+        <v>510462</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>571909</v>
+        <v>569475</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4439993693967803</v>
+        <v>0.4439993693967804</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4208157086626494</v>
+        <v>0.4194020947821611</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4698878087729597</v>
+        <v>0.4678879543977832</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>340766</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>318554</v>
+        <v>317333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>366322</v>
+        <v>364313</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5592327730527318</v>
+        <v>0.5592327730527319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.522779849338471</v>
+        <v>0.520775583491758</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6011731116064697</v>
+        <v>0.597876203024496</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>573</v>
@@ -7641,19 +7641,19 @@
         <v>335952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>315141</v>
+        <v>317023</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>353124</v>
+        <v>354432</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5527601129843699</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5185183755126749</v>
+        <v>0.5216142940014085</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5810134739781646</v>
+        <v>0.5831658244610207</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>941</v>
@@ -7662,19 +7662,19 @@
         <v>676718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>645209</v>
+        <v>647643</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>704936</v>
+        <v>706656</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5560006306032197</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5301121912270402</v>
+        <v>0.5321120456022166</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5791842913373507</v>
+        <v>0.5805979052178387</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>197862</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>180532</v>
+        <v>178713</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>214220</v>
+        <v>214607</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4860519941633042</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4434815605628543</v>
+        <v>0.439013190122557</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5262345008396283</v>
+        <v>0.5271854966410243</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>381</v>
@@ -7787,19 +7787,19 @@
         <v>210440</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>195112</v>
+        <v>196185</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>224663</v>
+        <v>226269</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4798501922678819</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4448975815909882</v>
+        <v>0.4473442723098793</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5122801674292263</v>
+        <v>0.5159443365066547</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>665</v>
@@ -7808,19 +7808,19 @@
         <v>408302</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>385095</v>
+        <v>384377</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>431239</v>
+        <v>431245</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4828356795358819</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4553921564558072</v>
+        <v>0.4545431506399598</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5099596980481567</v>
+        <v>0.5099672531446809</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>209218</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>192860</v>
+        <v>192473</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>226548</v>
+        <v>228367</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.5139480058366956</v>
+        <v>0.5139480058366958</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4737654991603715</v>
+        <v>0.4728145033589757</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5565184394371456</v>
+        <v>0.5609868098774432</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>445</v>
@@ -7858,19 +7858,19 @@
         <v>228114</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>213891</v>
+        <v>212285</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>243442</v>
+        <v>242369</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5201498077321181</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.487719832570774</v>
+        <v>0.4840556634933456</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.555102418409012</v>
+        <v>0.5526557276901207</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>731</v>
@@ -7879,19 +7879,19 @@
         <v>437331</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>414394</v>
+        <v>414388</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>460538</v>
+        <v>461256</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5171643204641181</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4900403019518433</v>
+        <v>0.4900327468553187</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5446078435441928</v>
+        <v>0.5454568493600404</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>159284</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>145381</v>
+        <v>144489</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>175684</v>
+        <v>174478</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5134919505973417</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4686729676067393</v>
+        <v>0.4657962115310281</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5663594493784105</v>
+        <v>0.562473855574405</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>431</v>
@@ -8004,19 +8004,19 @@
         <v>229576</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>212149</v>
+        <v>214516</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>245328</v>
+        <v>243778</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4945623502768774</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4570213889729856</v>
+        <v>0.4621190955492674</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5284972236094896</v>
+        <v>0.5251562695209218</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>674</v>
@@ -8025,19 +8025,19 @@
         <v>388860</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>367223</v>
+        <v>367757</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>409762</v>
+        <v>411848</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5021449254011129</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4742041007798085</v>
+        <v>0.4748939753178438</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5291357025299882</v>
+        <v>0.5318297170500335</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>150914</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>134514</v>
+        <v>135720</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>164817</v>
+        <v>165709</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4865080494026582</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4336405506215888</v>
+        <v>0.4375261444255949</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5313270323932604</v>
+        <v>0.5342037884689719</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>449</v>
@@ -8075,19 +8075,19 @@
         <v>234624</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>218872</v>
+        <v>220422</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>252051</v>
+        <v>249684</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5054376497231226</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4715027763905104</v>
+        <v>0.4748437304790781</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5429786110270145</v>
+        <v>0.5378809044507323</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>664</v>
@@ -8096,19 +8096,19 @@
         <v>385538</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>364636</v>
+        <v>362550</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>407175</v>
+        <v>406641</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4978550745988871</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4708642974700117</v>
+        <v>0.4681702829499666</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5257958992201915</v>
+        <v>0.5251060246821564</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1214570</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1153896</v>
+        <v>1151187</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1274297</v>
+        <v>1277759</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3438019468890993</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3266271626839257</v>
+        <v>0.3258603084516956</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3607083302128785</v>
+        <v>0.361688283628055</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2074</v>
@@ -8221,19 +8221,19 @@
         <v>1413111</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1358877</v>
+        <v>1361870</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1470371</v>
+        <v>1466189</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3787807638468187</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3642433778577643</v>
+        <v>0.3650458338340339</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3941292851989503</v>
+        <v>0.3930080680151773</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3360</v>
@@ -8242,19 +8242,19 @@
         <v>2627681</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2550499</v>
+        <v>2549595</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2706868</v>
+        <v>2705555</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3617679223619268</v>
+        <v>0.3617679223619267</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3511417138325709</v>
+        <v>0.3510172983043317</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.372670042852864</v>
+        <v>0.372489191071504</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2318192</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2258465</v>
+        <v>2255003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2378866</v>
+        <v>2381575</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6561980531109008</v>
+        <v>0.6561980531109007</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6392916697871216</v>
+        <v>0.6383117163719453</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6733728373160744</v>
+        <v>0.6741396915483043</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3282</v>
@@ -8292,19 +8292,19 @@
         <v>2317572</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2260312</v>
+        <v>2264494</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2371806</v>
+        <v>2368813</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6212192361531814</v>
+        <v>0.6212192361531813</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6058707148010496</v>
+        <v>0.6069919319848226</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6357566221422354</v>
+        <v>0.6349541661659661</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5372</v>
@@ -8313,19 +8313,19 @@
         <v>4635764</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4556577</v>
+        <v>4557890</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4712946</v>
+        <v>4713850</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6382320776380734</v>
+        <v>0.6382320776380732</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6273299571471361</v>
+        <v>0.6275108089284961</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6488582861674296</v>
+        <v>0.6489827016956685</v>
       </c>
     </row>
     <row r="27">
